--- a/Questions/AllQuestionList backup.xlsx
+++ b/Questions/AllQuestionList backup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3DB8F7-2900-1846-BBF2-2DB04BB536A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80675591-8105-BC4A-8FC1-386014DB0F11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="17040" xr2:uid="{D7A6323F-AAD6-E248-9CA7-6632C1438016}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +80,14 @@
   </si>
   <si>
     <t>들려오는 곡의 '가수를' 입력해 주세요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국어 애니메이션 OST로 떠나는 추억여행 (난이도 중)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제시되는 노래를 듣고 애니메이션의 '제목을' 입력해주세요!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831136E3-9C95-8B4F-B26F-E9CDC5B3AA45}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B7" sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -505,6 +513,14 @@
         <v>11</v>
       </c>
     </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
